--- a/tti_tts_datatab.xlsx
+++ b/tti_tts_datatab.xlsx
@@ -1,21 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Games\Schule_Studium\Bachelorarbeit\BTDocumentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83DF2F-E9B2-4801-B52A-68A3F516EFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="var1" sheetId="2" r:id="rId2"/>
     <sheet name="var2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+  <si>
+    <t>Time to Idle</t>
+  </si>
+  <si>
+    <t>Time to Submission</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Time to Submission &gt;2 Highlights</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -44,14 +75,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -376,101 +416,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Time to Idle</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Time to Submission</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>76</v>
       </c>
       <c r="B2">
         <v>51</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>111</v>
       </c>
       <c r="B3">
         <v>39</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="C3" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>126</v>
       </c>
       <c r="B5">
         <v>21</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>338</v>
       </c>
       <c r="B6">
         <v>119</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="C6" s="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>41</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="C7" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>113</v>
       </c>
       <c r="B8">
         <v>338</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="C8" s="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31</v>
       </c>
       <c r="B9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="C9" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>154</v>
       </c>
       <c r="B10">
         <v>113</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80</v>
       </c>
       <c r="B11">
         <v>428</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="C11" s="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -478,7 +554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>492</v>
       </c>
@@ -486,7 +562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32</v>
       </c>
@@ -494,7 +570,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -502,7 +578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>101</v>
       </c>
@@ -510,7 +586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>126</v>
       </c>
@@ -518,7 +594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>58</v>
       </c>
@@ -526,7 +602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>64</v>
       </c>
@@ -534,7 +610,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>102</v>
       </c>
@@ -542,7 +618,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
@@ -550,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32</v>
       </c>
@@ -558,7 +634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>437</v>
       </c>
@@ -566,7 +642,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>63</v>
       </c>
@@ -574,7 +650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>56</v>
       </c>
@@ -582,7 +658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -590,7 +666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>48</v>
       </c>
@@ -598,7 +674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -606,7 +682,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>43</v>
       </c>
@@ -614,7 +690,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>136</v>
       </c>
@@ -622,7 +698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>46</v>
       </c>
@@ -630,7 +706,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>81</v>
       </c>
@@ -638,7 +714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>89</v>
       </c>
@@ -646,7 +722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -654,7 +730,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>570</v>
       </c>
@@ -662,74 +738,79 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B36"/>
+    <ignoredError sqref="A1:B36" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Level</v>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Labels</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Values</v>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError sqref="A1:B2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Level</v>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Labels</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Values</v>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError sqref="A1:B2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>